--- a/data/trans_orig/IP42B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP42B-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21EB09FE-D795-4A0C-B68F-A10C88F8BBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B0C3F59-DF0B-4D7A-9FF3-EC2F6F2AE198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{33DAE36A-4A63-436C-AD8F-508E2C3728B0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CA370396-F4A5-4FEF-821A-267D31246E50}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="313">
-  <si>
-    <t>Adulto según si la persona sustentadora principal percibe o no una pensión en 2007 (Tasa respuesta: 21,1%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="281">
+  <si>
+    <t>Adulto según si su esposo/a y/o pareja percibe o no una pensión en 2007 (Tasa respuesta: 21,1%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,916 +67,820 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>5,26%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Adulto según si su esposo/a y/o pareja percibe o no una pensión en 2012 (Tasa respuesta: 24,96%)</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>Adulto según si su esposo/a y/o pareja percibe o no una pensión en 2016 (Tasa respuesta: 30,24%)</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
   </si>
   <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
   </si>
   <si>
     <t>90,51%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Adulto según si la persona sustentadora principal percibe o no una pensión en 2012 (Tasa respuesta: 24,96%)</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>Adulto según si la persona sustentadora principal percibe o no una pensión en 2016 (Tasa respuesta: 30,24%)</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
   </si>
   <si>
     <t>7,86%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
   </si>
   <si>
     <t>4,4%</t>
   </si>
   <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
   </si>
   <si>
     <t>95,6%</t>
   </si>
   <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
     <t>93,71%</t>
   </si>
   <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
   </si>
   <si>
     <t>91,91%</t>
   </si>
   <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
   </si>
   <si>
     <t>7,49%</t>
   </si>
   <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>6,01%</t>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
   </si>
   <si>
     <t>92,51%</t>
   </si>
   <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
   </si>
   <si>
     <t>92,08%</t>
   </si>
   <si>
-    <t>93,99%</t>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
 </sst>
 </file>
@@ -1388,8 +1292,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F991DA-B6C2-4705-9FEC-B2A64673BA44}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCE2A48-27BF-4F18-A50E-520D8CE1AE1A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1506,10 +1410,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1392</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1521,85 +1425,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1468</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>2861</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D5" s="7">
-        <v>8068</v>
+        <v>25073</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="I5" s="7">
-        <v>7146</v>
+        <v>38761</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="N5" s="7">
-        <v>15214</v>
+        <v>63833</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,153 +1512,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D6" s="7">
-        <v>8068</v>
+        <v>26465</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="I6" s="7">
-        <v>7146</v>
+        <v>40229</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="N6" s="7">
-        <v>15214</v>
+        <v>66694</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>1468</v>
+        <v>3929</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>1392</v>
+        <v>2055</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>2861</v>
+        <v>5984</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
+        <v>60</v>
+      </c>
+      <c r="D8" s="7">
+        <v>37664</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="7">
+        <v>61</v>
+      </c>
+      <c r="I8" s="7">
+        <v>39849</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="7">
+        <v>121</v>
+      </c>
+      <c r="N8" s="7">
+        <v>77513</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="7">
-        <v>30692</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="7">
-        <v>26</v>
-      </c>
-      <c r="I8" s="7">
-        <v>17927</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="7">
-        <v>72</v>
-      </c>
-      <c r="N8" s="7">
-        <v>48619</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1763,153 +1667,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D9" s="7">
-        <v>32160</v>
+        <v>41593</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="I9" s="7">
-        <v>19319</v>
+        <v>41904</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="N9" s="7">
-        <v>51480</v>
+        <v>83497</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>2055</v>
+        <v>3288</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>3929</v>
+        <v>2806</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>5984</v>
+        <v>6094</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
+        <v>43</v>
+      </c>
+      <c r="D11" s="7">
+        <v>25798</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="7">
+        <v>36</v>
+      </c>
+      <c r="I11" s="7">
+        <v>23306</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="7">
-        <v>39849</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="7">
-        <v>60</v>
-      </c>
-      <c r="I11" s="7">
-        <v>37664</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="K11" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="N11" s="7">
-        <v>77513</v>
+        <v>49103</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1918,153 +1822,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D12" s="7">
-        <v>41904</v>
+        <v>29086</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I12" s="7">
-        <v>41593</v>
+        <v>26112</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="N12" s="7">
-        <v>83497</v>
+        <v>55197</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>2806</v>
+        <v>3888</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>3288</v>
+        <v>5435</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N13" s="7">
-        <v>6094</v>
+        <v>9322</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D14" s="7">
-        <v>23306</v>
+        <v>35005</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="I14" s="7">
-        <v>25798</v>
+        <v>47116</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="N14" s="7">
-        <v>49103</v>
+        <v>82121</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,153 +1977,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D15" s="7">
-        <v>26112</v>
+        <v>38893</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="I15" s="7">
-        <v>29086</v>
+        <v>52551</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="N15" s="7">
-        <v>55197</v>
+        <v>91443</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D16" s="7">
-        <v>5435</v>
+        <v>12496</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I16" s="7">
-        <v>3888</v>
+        <v>11764</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="N16" s="7">
-        <v>9322</v>
+        <v>24261</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>71</v>
+        <v>185</v>
       </c>
       <c r="D17" s="7">
-        <v>47116</v>
+        <v>123541</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
-        <v>47</v>
+        <v>224</v>
       </c>
       <c r="I17" s="7">
-        <v>35005</v>
+        <v>149031</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
-        <v>118</v>
+        <v>409</v>
       </c>
       <c r="N17" s="7">
-        <v>82121</v>
+        <v>272571</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,217 +2132,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="D18" s="7">
-        <v>52551</v>
+        <v>136037</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="I18" s="7">
-        <v>38893</v>
+        <v>160795</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>131</v>
+        <v>444</v>
       </c>
       <c r="N18" s="7">
-        <v>91443</v>
+        <v>296832</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>17</v>
-      </c>
-      <c r="D19" s="7">
-        <v>11764</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" s="7">
-        <v>18</v>
-      </c>
-      <c r="I19" s="7">
-        <v>12496</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M19" s="7">
-        <v>35</v>
-      </c>
-      <c r="N19" s="7">
-        <v>24261</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>224</v>
-      </c>
-      <c r="D20" s="7">
-        <v>149031</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="A19" t="s">
         <v>104</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H20" s="7">
-        <v>185</v>
-      </c>
-      <c r="I20" s="7">
-        <v>123541</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M20" s="7">
-        <v>409</v>
-      </c>
-      <c r="N20" s="7">
-        <v>272571</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>241</v>
-      </c>
-      <c r="D21" s="7">
-        <v>160795</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>203</v>
-      </c>
-      <c r="I21" s="7">
-        <v>136037</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>444</v>
-      </c>
-      <c r="N21" s="7">
-        <v>296832</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>112</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2451,8 +2199,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C3D619-EAF5-4E84-8F52-4B6225C71AB9}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C6039A-966C-4E4A-90A5-9D7535F2A41A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2468,7 +2216,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2569,100 +2317,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>4366</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="7">
+        <v>6</v>
+      </c>
+      <c r="I4" s="7">
+        <v>4171</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M4" s="7">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="N4" s="7">
+        <v>8538</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>896</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="M4" s="7">
-        <v>1</v>
-      </c>
-      <c r="N4" s="7">
-        <v>896</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="D5" s="7">
-        <v>7963</v>
+        <v>32342</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="7">
+        <v>52</v>
+      </c>
+      <c r="I5" s="7">
+        <v>38459</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>5</v>
-      </c>
-      <c r="I5" s="7">
-        <v>4331</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>96</v>
+      </c>
+      <c r="N5" s="7">
+        <v>70799</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="7">
-        <v>13</v>
-      </c>
-      <c r="N5" s="7">
-        <v>12294</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,63 +2419,63 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D6" s="7">
-        <v>7963</v>
+        <v>36708</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="I6" s="7">
-        <v>5227</v>
+        <v>42630</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="N6" s="7">
-        <v>13190</v>
+        <v>79337</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D7" s="7">
-        <v>4171</v>
+        <v>8371</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>124</v>
@@ -2739,10 +2487,10 @@
         <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>3470</v>
+        <v>6923</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>127</v>
@@ -2754,10 +2502,10 @@
         <v>129</v>
       </c>
       <c r="M7" s="7">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="N7" s="7">
-        <v>7642</v>
+        <v>15293</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>130</v>
@@ -2772,13 +2520,13 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D8" s="7">
-        <v>30495</v>
+        <v>40290</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>133</v>
@@ -2790,10 +2538,10 @@
         <v>135</v>
       </c>
       <c r="H8" s="7">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="I8" s="7">
-        <v>28010</v>
+        <v>54053</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>136</v>
@@ -2805,10 +2553,10 @@
         <v>138</v>
       </c>
       <c r="M8" s="7">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="N8" s="7">
-        <v>58505</v>
+        <v>94344</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>139</v>
@@ -2826,153 +2574,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D9" s="7">
-        <v>34666</v>
+        <v>48661</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="I9" s="7">
-        <v>31480</v>
+        <v>60976</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="N9" s="7">
-        <v>66147</v>
+        <v>109637</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D10" s="7">
-        <v>6923</v>
+        <v>9843</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I10" s="7">
-        <v>8371</v>
+        <v>9340</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N10" s="7">
-        <v>15293</v>
+        <v>19184</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="D11" s="7">
-        <v>54053</v>
+        <v>37497</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="I11" s="7">
-        <v>40290</v>
+        <v>30836</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="N11" s="7">
-        <v>94344</v>
+        <v>68333</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,153 +2729,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D12" s="7">
-        <v>60976</v>
+        <v>47340</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="I12" s="7">
-        <v>48661</v>
+        <v>40176</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="N12" s="7">
-        <v>109637</v>
+        <v>87517</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>9340</v>
+        <v>5644</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>9843</v>
+        <v>5959</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="N13" s="7">
-        <v>19184</v>
+        <v>11603</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D14" s="7">
-        <v>30836</v>
+        <v>40355</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I14" s="7">
-        <v>37497</v>
+        <v>38293</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
         <v>104</v>
       </c>
       <c r="N14" s="7">
-        <v>68333</v>
+        <v>78648</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,153 +2884,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="7">
-        <v>40176</v>
+        <v>45999</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="I15" s="7">
-        <v>47340</v>
+        <v>44252</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="N15" s="7">
-        <v>87517</v>
+        <v>90251</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D16" s="7">
-        <v>5959</v>
+        <v>28224</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="I16" s="7">
-        <v>5644</v>
+        <v>26394</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="N16" s="7">
-        <v>11603</v>
+        <v>54618</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>51</v>
+        <v>216</v>
       </c>
       <c r="D17" s="7">
-        <v>38293</v>
+        <v>150483</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
-        <v>53</v>
+        <v>228</v>
       </c>
       <c r="I17" s="7">
-        <v>40355</v>
+        <v>161640</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
-        <v>104</v>
+        <v>444</v>
       </c>
       <c r="N17" s="7">
-        <v>78648</v>
+        <v>312123</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,217 +3039,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>60</v>
+        <v>257</v>
       </c>
       <c r="D18" s="7">
-        <v>44252</v>
+        <v>178707</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>60</v>
+        <v>267</v>
       </c>
       <c r="I18" s="7">
-        <v>45999</v>
+        <v>188034</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>120</v>
+        <v>524</v>
       </c>
       <c r="N18" s="7">
-        <v>90251</v>
+        <v>366741</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>39</v>
-      </c>
-      <c r="D19" s="7">
-        <v>26394</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H19" s="7">
-        <v>41</v>
-      </c>
-      <c r="I19" s="7">
-        <v>28224</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="M19" s="7">
-        <v>80</v>
-      </c>
-      <c r="N19" s="7">
-        <v>54618</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>228</v>
-      </c>
-      <c r="D20" s="7">
-        <v>161640</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H20" s="7">
-        <v>216</v>
-      </c>
-      <c r="I20" s="7">
-        <v>150483</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M20" s="7">
-        <v>444</v>
-      </c>
-      <c r="N20" s="7">
-        <v>312123</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>267</v>
-      </c>
-      <c r="D21" s="7">
-        <v>188034</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>257</v>
-      </c>
-      <c r="I21" s="7">
-        <v>178707</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>524</v>
-      </c>
-      <c r="N21" s="7">
-        <v>366741</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>112</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3514,8 +3106,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4FBC99-5432-4817-AFB4-38D1377C34A0}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9155E02A-8B5A-43B4-9698-08418C5BA51E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3531,7 +3123,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3632,100 +3224,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>1674</v>
+        <v>2732</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>570</v>
+        <v>6809</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N4" s="7">
-        <v>2244</v>
+        <v>9541</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="D5" s="7">
-        <v>8613</v>
+        <v>37611</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>17</v>
+        <v>207</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="I5" s="7">
-        <v>5783</v>
+        <v>53391</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="M5" s="7">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="N5" s="7">
-        <v>14396</v>
+        <v>91003</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>226</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,153 +3326,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D6" s="7">
-        <v>10287</v>
+        <v>40343</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="I6" s="7">
-        <v>6353</v>
+        <v>60200</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="N6" s="7">
-        <v>16640</v>
+        <v>100544</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>5135</v>
+        <v>5101</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>2162</v>
+        <v>5112</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="M7" s="7">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N7" s="7">
-        <v>7297</v>
+        <v>10212</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="D8" s="7">
-        <v>44778</v>
+        <v>62424</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="H8" s="7">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="I8" s="7">
-        <v>31829</v>
+        <v>59890</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="M8" s="7">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="N8" s="7">
-        <v>76607</v>
+        <v>122315</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>242</v>
+        <v>177</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3889,153 +3481,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="D9" s="7">
-        <v>49913</v>
+        <v>67525</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="I9" s="7">
-        <v>33991</v>
+        <v>65002</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="N9" s="7">
-        <v>83904</v>
+        <v>132527</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>5112</v>
+        <v>4173</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>247</v>
+        <v>186</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>5101</v>
+        <v>2013</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="M10" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N10" s="7">
-        <v>10212</v>
+        <v>6186</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D11" s="7">
-        <v>59890</v>
+        <v>40866</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>255</v>
+        <v>194</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="H11" s="7">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="I11" s="7">
-        <v>62424</v>
+        <v>49531</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="M11" s="7">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="N11" s="7">
-        <v>122315</v>
+        <v>90397</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,153 +3636,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="D12" s="7">
-        <v>65002</v>
+        <v>45039</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="I12" s="7">
-        <v>67525</v>
+        <v>51544</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c r="N12" s="7">
-        <v>132527</v>
+        <v>96583</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>2013</v>
+        <v>5024</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="H13" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>4173</v>
+        <v>3634</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="M13" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N13" s="7">
-        <v>6186</v>
+        <v>8657</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D14" s="7">
-        <v>49531</v>
+        <v>44141</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="H14" s="7">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="I14" s="7">
-        <v>40866</v>
+        <v>54156</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="M14" s="7">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="N14" s="7">
-        <v>90397</v>
+        <v>98298</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,153 +3791,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D15" s="7">
-        <v>51544</v>
+        <v>49165</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I15" s="7">
-        <v>45039</v>
+        <v>57790</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N15" s="7">
-        <v>96583</v>
+        <v>106955</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D16" s="7">
-        <v>3634</v>
+        <v>17029</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="I16" s="7">
-        <v>5024</v>
+        <v>17567</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="M16" s="7">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="N16" s="7">
-        <v>8657</v>
+        <v>34596</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>76</v>
+        <v>282</v>
       </c>
       <c r="D17" s="7">
-        <v>54156</v>
+        <v>185044</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="H17" s="7">
-        <v>61</v>
+        <v>310</v>
       </c>
       <c r="I17" s="7">
-        <v>44141</v>
+        <v>216968</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="M17" s="7">
-        <v>137</v>
+        <v>592</v>
       </c>
       <c r="N17" s="7">
-        <v>98298</v>
+        <v>402012</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,217 +3946,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>81</v>
+        <v>308</v>
       </c>
       <c r="D18" s="7">
-        <v>57790</v>
+        <v>202073</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>68</v>
+        <v>335</v>
       </c>
       <c r="I18" s="7">
-        <v>49165</v>
+        <v>234535</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>149</v>
+        <v>643</v>
       </c>
       <c r="N18" s="7">
-        <v>106955</v>
+        <v>436608</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>25</v>
-      </c>
-      <c r="D19" s="7">
-        <v>17567</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H19" s="7">
-        <v>26</v>
-      </c>
-      <c r="I19" s="7">
-        <v>17029</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M19" s="7">
-        <v>51</v>
-      </c>
-      <c r="N19" s="7">
-        <v>34596</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>310</v>
-      </c>
-      <c r="D20" s="7">
-        <v>216968</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="H20" s="7">
-        <v>282</v>
-      </c>
-      <c r="I20" s="7">
-        <v>185044</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="M20" s="7">
-        <v>592</v>
-      </c>
-      <c r="N20" s="7">
-        <v>402012</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>335</v>
-      </c>
-      <c r="D21" s="7">
-        <v>234535</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>308</v>
-      </c>
-      <c r="I21" s="7">
-        <v>202073</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>643</v>
-      </c>
-      <c r="N21" s="7">
-        <v>436608</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>112</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
